--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/L1cam-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/L1cam-Egfr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.72083766666667</v>
+        <v>3.685507</v>
       </c>
       <c r="H2">
-        <v>59.162513</v>
+        <v>11.056521</v>
       </c>
       <c r="I2">
-        <v>0.8016210077351786</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="J2">
-        <v>0.8016210077351787</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N2">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q2">
-        <v>25.77723838635111</v>
+        <v>1.580135327701</v>
       </c>
       <c r="R2">
-        <v>231.99514547716</v>
+        <v>14.221217949309</v>
       </c>
       <c r="S2">
-        <v>0.01007046936249069</v>
+        <v>0.001477460973428792</v>
       </c>
       <c r="T2">
-        <v>0.01007046936249069</v>
+        <v>0.001477460973428792</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.72083766666667</v>
+        <v>3.685507</v>
       </c>
       <c r="H3">
-        <v>59.162513</v>
+        <v>11.056521</v>
       </c>
       <c r="I3">
-        <v>0.8016210077351786</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="J3">
-        <v>0.8016210077351787</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N3">
         <v>240.678711</v>
       </c>
       <c r="O3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q3">
-        <v>1582.128596484527</v>
+        <v>295.6743580471589</v>
       </c>
       <c r="R3">
-        <v>14239.15736836075</v>
+        <v>2661.069222424431</v>
       </c>
       <c r="S3">
-        <v>0.6180948214706404</v>
+        <v>0.276461969554136</v>
       </c>
       <c r="T3">
-        <v>0.6180948214706405</v>
+        <v>0.276461969554136</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.72083766666667</v>
+        <v>3.685507</v>
       </c>
       <c r="H4">
-        <v>59.162513</v>
+        <v>11.056521</v>
       </c>
       <c r="I4">
-        <v>0.8016210077351786</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="J4">
-        <v>0.8016210077351787</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N4">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q4">
-        <v>443.9921520156098</v>
+        <v>86.22659228839368</v>
       </c>
       <c r="R4">
-        <v>3995.929368140489</v>
+        <v>776.039330595543</v>
       </c>
       <c r="S4">
-        <v>0.1734557169020474</v>
+        <v>0.08062374326078239</v>
       </c>
       <c r="T4">
-        <v>0.1734557169020475</v>
+        <v>0.08062374326078239</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.297477</v>
       </c>
       <c r="I5">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="J5">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N5">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q5">
-        <v>0.12961138996</v>
+        <v>0.042513727137</v>
       </c>
       <c r="R5">
-        <v>1.16650250964</v>
+        <v>0.382623544233</v>
       </c>
       <c r="S5">
-        <v>5.063566205420725E-05</v>
+        <v>3.975126153992534E-05</v>
       </c>
       <c r="T5">
-        <v>5.063566205420727E-05</v>
+        <v>3.975126153992534E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.297477</v>
       </c>
       <c r="I6">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="J6">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N6">
         <v>240.678711</v>
       </c>
       <c r="O6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q6">
-        <v>7.955153434683001</v>
+        <v>7.955153434682998</v>
       </c>
       <c r="R6">
-        <v>71.596380912147</v>
+        <v>71.59638091214698</v>
       </c>
       <c r="S6">
-        <v>0.00310786313635159</v>
+        <v>0.007438241858994862</v>
       </c>
       <c r="T6">
-        <v>0.00310786313635159</v>
+        <v>0.007438241858994862</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.297477</v>
       </c>
       <c r="I7">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="J7">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N7">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q7">
-        <v>2.232451711528</v>
+        <v>2.319936623299</v>
       </c>
       <c r="R7">
-        <v>20.092065403752</v>
+        <v>20.879429609691</v>
       </c>
       <c r="S7">
-        <v>0.0008721584611672996</v>
+        <v>0.002169191310176842</v>
       </c>
       <c r="T7">
-        <v>0.0008721584611672999</v>
+        <v>0.002169191310176842</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.781202</v>
+        <v>6.493877</v>
       </c>
       <c r="H8">
-        <v>14.343606</v>
+        <v>19.481631</v>
       </c>
       <c r="I8">
-        <v>0.1943483350052482</v>
+        <v>0.6317896417809412</v>
       </c>
       <c r="J8">
-        <v>0.1943483350052483</v>
+        <v>0.6317896417809411</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N8">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O8">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P8">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q8">
-        <v>6.24954100888</v>
+        <v>2.784204306611</v>
       </c>
       <c r="R8">
-        <v>56.24586907992</v>
+        <v>25.057838759499</v>
       </c>
       <c r="S8">
-        <v>0.002441526524923606</v>
+        <v>0.002603291713662963</v>
       </c>
       <c r="T8">
-        <v>0.002441526524923606</v>
+        <v>0.002603291713662963</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.781202</v>
+        <v>6.493877</v>
       </c>
       <c r="H9">
-        <v>14.343606</v>
+        <v>19.481631</v>
       </c>
       <c r="I9">
-        <v>0.1943483350052482</v>
+        <v>0.6317896417809412</v>
       </c>
       <c r="J9">
-        <v>0.1943483350052483</v>
+        <v>0.6317896417809411</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N9">
         <v>240.678711</v>
       </c>
       <c r="O9">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P9">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q9">
-        <v>383.577844796874</v>
+        <v>520.9793152508489</v>
       </c>
       <c r="R9">
-        <v>3452.200603171866</v>
+        <v>4688.81383725764</v>
       </c>
       <c r="S9">
-        <v>0.149853482217958</v>
+        <v>0.4871270154858761</v>
       </c>
       <c r="T9">
-        <v>0.149853482217958</v>
+        <v>0.487127015485876</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.781202</v>
+        <v>6.493877</v>
       </c>
       <c r="H10">
-        <v>14.343606</v>
+        <v>19.481631</v>
       </c>
       <c r="I10">
-        <v>0.1943483350052482</v>
+        <v>0.6317896417809412</v>
       </c>
       <c r="J10">
-        <v>0.1943483350052483</v>
+        <v>0.6317896417809411</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N10">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O10">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P10">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q10">
-        <v>107.643306084784</v>
+        <v>151.9315753436304</v>
       </c>
       <c r="R10">
-        <v>968.7897547630561</v>
+        <v>1367.384178092673</v>
       </c>
       <c r="S10">
-        <v>0.04205332626236666</v>
+        <v>0.1420593345814022</v>
       </c>
       <c r="T10">
-        <v>0.04205332626236667</v>
+        <v>0.1420593345814022</v>
       </c>
     </row>
   </sheetData>
